--- a/output/time_results.xlsx
+++ b/output/time_results.xlsx
@@ -1,114 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Train_time</t>
-  </si>
-  <si>
-    <t>BiVAE</t>
-  </si>
-  <si>
-    <t>EASEᴿ</t>
-  </si>
-  <si>
-    <t>MostPop</t>
-  </si>
-  <si>
-    <t>ETeR-X</t>
-  </si>
-  <si>
-    <t>USEM</t>
-  </si>
-  <si>
-    <t>BERT</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>Subset</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>POI</t>
-  </si>
-  <si>
-    <t>RST</t>
-  </si>
-  <si>
-    <t>MSC</t>
-  </si>
-  <si>
-    <t>FSH</t>
-  </si>
-  <si>
-    <t>BCN</t>
-  </si>
-  <si>
-    <t>MDR</t>
-  </si>
-  <si>
-    <t>NYC</t>
-  </si>
-  <si>
-    <t>PRS</t>
-  </si>
-  <si>
-    <t>LND</t>
-  </si>
-  <si>
-    <t>GJN</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,18 +46,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -136,16 +105,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,356 +469,412 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Train_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>BiVAE</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>EASEᴿ</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>MostPop</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>ETeR-X</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>USEM</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>BERT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Subset</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>386.5587</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>4.7858</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.3189404010772705</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>179.7964928150177</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>4198.602324008942</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>9970.989691495895</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>FSH</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>345.8308</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>5.1412</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.3137505054473877</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>37.14575386047363</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>3345.191141366959</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>992.1567485332489</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>POI</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>BCN</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>69.3459</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>3.4404</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.2959823608398437</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>667.8732690811157</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>142.6459674835205</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>4103.80993437767</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>MDR</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>100.5543</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4.3565</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.3240346908569336</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>9.554208993911743</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>287.4131686687469</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>2935.139235258102</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>NYC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>52.8296</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>3.4475</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.3132350444793701</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>74.51171398162842</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>95.36306858062744</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>3480.940505504608</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>40.166</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>2.481</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.3036065101623535</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>119.6646575927734</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>62.45525884628296</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>2426.383432865143</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>LND</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>43.1859</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>2.1179</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.1640818119049072</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>35.80299949645996</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>118.9589469432831</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>2607.105662822723</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RST</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>GJN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>28.6884</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>1.0422</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>0.3363080024719238</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>17.09086942672729</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>309.5013952255249</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>2998.131769657135</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>BCN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>352.6678</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>12.4069</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>0.3015758991241455</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>151.5743391513824</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>828.8893673419952</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>32373.4896941185</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>MDR</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>411.1219</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>18.1851</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>0.1836638450622558</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>224.0520765781403</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>1094.347886800766</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>54453.34705519676</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>NYC</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>997.8453</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>27.9478</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>0.2820250988006592</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>359.0720317363739</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>17247.05885076523</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>214397.6955151558</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>1439.7406</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>33.7482</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>0.2036879062652588</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>646.7654030323029</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>2534.750314712524</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>146530.9495928288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A11:A15"/>
     <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/time_results.xlsx
+++ b/output/time_results.xlsx
@@ -503,17 +503,17 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>MostPop</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>EASEᴿ</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>BiVAE</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>EASEᴿ</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>MostPop</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>386.5587</v>
+        <v>0.3189404010772705</v>
       </c>
       <c r="D4" t="n">
         <v>4.7858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3189404010772705</v>
+        <v>386.5587</v>
       </c>
       <c r="F4" t="n">
         <v>179.7964928150177</v>
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>345.8308</v>
+        <v>0.3137505054473877</v>
       </c>
       <c r="D5" t="n">
         <v>5.1412</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3137505054473877</v>
+        <v>345.8308</v>
       </c>
       <c r="F5" t="n">
         <v>37.14575386047363</v>
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69.3459</v>
+        <v>0.2959823608398437</v>
       </c>
       <c r="D6" t="n">
         <v>3.4404</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2959823608398437</v>
+        <v>69.3459</v>
       </c>
       <c r="F6" t="n">
         <v>667.8732690811157</v>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100.5543</v>
+        <v>0.3240346908569336</v>
       </c>
       <c r="D7" t="n">
         <v>4.3565</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3240346908569336</v>
+        <v>100.5543</v>
       </c>
       <c r="F7" t="n">
         <v>9.554208993911743</v>
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52.8296</v>
+        <v>0.3132350444793701</v>
       </c>
       <c r="D8" t="n">
         <v>3.4475</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3132350444793701</v>
+        <v>52.8296</v>
       </c>
       <c r="F8" t="n">
         <v>74.51171398162842</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40.166</v>
+        <v>0.3036065101623535</v>
       </c>
       <c r="D9" t="n">
         <v>2.481</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3036065101623535</v>
+        <v>40.166</v>
       </c>
       <c r="F9" t="n">
         <v>119.6646575927734</v>
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>43.1859</v>
+        <v>0.1640818119049072</v>
       </c>
       <c r="D10" t="n">
         <v>2.1179</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1640818119049072</v>
+        <v>43.1859</v>
       </c>
       <c r="F10" t="n">
         <v>35.80299949645996</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28.6884</v>
+        <v>0.3363080024719238</v>
       </c>
       <c r="D11" t="n">
         <v>1.0422</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3363080024719238</v>
+        <v>28.6884</v>
       </c>
       <c r="F11" t="n">
         <v>17.09086942672729</v>
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>352.6678</v>
+        <v>0.3015758991241455</v>
       </c>
       <c r="D12" t="n">
         <v>12.4069</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3015758991241455</v>
+        <v>352.6678</v>
       </c>
       <c r="F12" t="n">
         <v>151.5743391513824</v>
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>411.1219</v>
+        <v>0.1836638450622558</v>
       </c>
       <c r="D13" t="n">
         <v>18.1851</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1836638450622558</v>
+        <v>411.1219</v>
       </c>
       <c r="F13" t="n">
         <v>224.0520765781403</v>
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>997.8453</v>
+        <v>0.2820250988006592</v>
       </c>
       <c r="D14" t="n">
         <v>27.9478</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2820250988006592</v>
+        <v>997.8453</v>
       </c>
       <c r="F14" t="n">
         <v>359.0720317363739</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1439.7406</v>
+        <v>0.2036879062652588</v>
       </c>
       <c r="D15" t="n">
         <v>33.7482</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2036879062652588</v>
+        <v>1439.7406</v>
       </c>
       <c r="F15" t="n">
         <v>646.7654030323029</v>

--- a/output/time_results.xlsx
+++ b/output/time_results.xlsx
@@ -1,43 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Train_time</t>
+  </si>
+  <si>
+    <t>MostPop</t>
+  </si>
+  <si>
+    <t>EASEᴿ</t>
+  </si>
+  <si>
+    <t>BiVAE</t>
+  </si>
+  <si>
+    <t>ETeR-X</t>
+  </si>
+  <si>
+    <t>USEM</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Subset</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>FSH</t>
+  </si>
+  <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>PRS</t>
+  </si>
+  <si>
+    <t>LND</t>
+  </si>
+  <si>
+    <t>GJN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,58 +117,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -105,83 +136,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -469,412 +433,356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Train_time</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>MostPop</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>EASEᴿ</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>BiVAE</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>ETeR-X</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>USEM</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>BERT</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Set</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>Subset</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>MSC</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>0.3189404010772705</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4.7858</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>386.5587</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>179.7964928150177</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>4198.602324008942</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>9970.989691495895</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
         <v>0.3137505054473877</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>5.1412</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>345.8308</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>37.14575386047363</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3345.191141366959</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>992.1567485332489</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>POI</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>BCN</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
         <v>0.2959823608398437</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>3.4404</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>69.3459</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>667.8732690811157</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>142.6459674835205</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>4103.80993437767</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>MDR</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
         <v>0.3240346908569336</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4.3565</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>100.5543</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>9.554208993911743</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>287.4131686687469</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>2935.139235258102</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>NYC</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
         <v>0.3132350444793701</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3.4475</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>52.8296</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>74.51171398162842</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>95.36306858062744</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>3480.940505504608</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>PRS</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
         <v>0.3036065101623535</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2.481</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>40.166</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>119.6646575927734</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>62.45525884628296</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>2426.383432865143</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>LND</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
         <v>0.1640818119049072</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2.1179</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>43.1859</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>35.80299949645996</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>118.9589469432831</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>2607.105662822723</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RST</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>GJN</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
         <v>0.3363080024719238</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1.0422</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>28.6884</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>17.09086942672729</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>309.5013952255249</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>2998.131769657135</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>BCN</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
         <v>0.3015758991241455</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>12.4069</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>352.6678</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>151.5743391513824</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>828.8893673419952</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>32373.4896941185</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>MDR</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
         <v>0.1836638450622558</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>18.1851</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>411.1219</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>224.0520765781403</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>1094.347886800766</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>54453.34705519676</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>NYC</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
         <v>0.2820250988006592</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>27.9478</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>997.8453</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>359.0720317363739</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>17247.05885076523</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>214397.6955151558</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>PRS</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
         <v>0.2036879062652588</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>33.7482</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1439.7406</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>646.7654030323029</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>2534.750314712524</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>146530.9495928288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A11:A15"/>
-    <mergeCell ref="C1:H1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>